--- a/data/all.xlsx
+++ b/data/all.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C:$C</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="111">
   <si>
     <t>姓名</t>
   </si>
@@ -97,7 +100,7 @@
     <t>Post_test</t>
   </si>
   <si>
-    <t>Improvement</t>
+    <t>Gain</t>
   </si>
   <si>
     <t>Alpha_Fz</t>
@@ -344,9 +347,6 @@
   </si>
   <si>
     <t>王彩仪</t>
-  </si>
-  <si>
-    <t>高一</t>
   </si>
   <si>
     <t>胡鑫宇</t>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7647,7 +7647,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>38</v>
@@ -7748,7 +7748,7 @@
     </row>
     <row r="61" spans="1:38">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>36</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="62" spans="1:38">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>36</v>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="63" spans="1:38">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>36</v>
@@ -8069,7 +8069,7 @@
     </row>
     <row r="64" spans="1:38">
       <c r="A64" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>36</v>
@@ -8078,7 +8078,7 @@
         <v>37</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>39</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="65" spans="1:38">
       <c r="A65" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>36</v>
@@ -8185,7 +8185,7 @@
         <v>37</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>39</v>
